--- a/src/main/resources/static/excel/xlsx/college.xlsx
+++ b/src/main/resources/static/excel/xlsx/college.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F68A63-07E0-4470-837C-C050142E772A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81DB61F-6D4A-4EF4-910D-EFA1524E2F83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>院系名称</t>
   </si>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>样板，添加时请删除。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>院系状态：0（正常）、1（禁用）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -133,14 +129,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +455,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,76 +473,71 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:I7"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/static/excel/xlsx/college.xlsx
+++ b/src/main/resources/static/excel/xlsx/college.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81DB61F-6D4A-4EF4-910D-EFA1524E2F83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE470A3-D035-4EF0-AFA3-6EB60AC72F7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/static/excel/xlsx/college.xlsx
+++ b/src/main/resources/static/excel/xlsx/college.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE470A3-D035-4EF0-AFA3-6EB60AC72F7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5036CD37-6D49-4343-A493-49ADF3EE32BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>院系名称</t>
   </si>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>样板，添加时请删除。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +459,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -484,8 +488,8 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
